--- a/Inventory/Templates/TwoColumnTemplate.xlsx
+++ b/Inventory/Templates/TwoColumnTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetz2\source\repos\Tetz228\Inventory\Inventory\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2939EE82-0533-458A-83C8-D779C5A7A1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F82855-48CC-4197-9ACC-CBBB5437CB95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="765" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Наименование</t>
+    <t>{{TableName}}</t>
   </si>
   <si>
-    <t>Сокеты</t>
+    <t>{{ColumnName1}}</t>
   </si>
   <si>
-    <t>{{Name}}</t>
+    <t>{{ColumnName2}}</t>
+  </si>
+  <si>
+    <t>{{Name2}}</t>
+  </si>
+  <si>
+    <t>{{Name1}}</t>
   </si>
 </sst>
 </file>
@@ -143,14 +149,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7B7B7"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB7B7B7"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -160,25 +162,29 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,66 +469,74 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="C3:C7" xr:uid="{C3D4D44E-E0B7-47AC-AAB5-8FA33BFD814D}">
       <formula1>"В работе,Завершен"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A3:A7" xr:uid="{E8E9FD4B-A4B9-45D0-9ADB-40EB155737E9}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A3:A7 B3" xr:uid="{E8E9FD4B-A4B9-45D0-9ADB-40EB155737E9}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A3))), AND(ISNUMBER(A3), LEFT(CELL("format", A3))="D"))</formula1>
     </dataValidation>
   </dataValidations>
